--- a/ig/34-representation-des-extensions-sur-le-mapping/eclaire-study-status-concept-map.xlsx
+++ b/ig/34-representation-des-extensions-sur-le-mapping/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T12:09:50+00:00</t>
+    <t>2023-08-29T14:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/34-representation-des-extensions-sur-le-mapping/eclaire-study-status-concept-map.xlsx
+++ b/ig/34-representation-des-extensions-sur-le-mapping/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T14:47:55+00:00</t>
+    <t>2023-08-30T13:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
